--- a/Homework 4/Prb2.xlsx
+++ b/Homework 4/Prb2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28016"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deeks\Desktop\Fall\APM\Advanced-Predictive-Modeling-HW\Homework 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ReeceWooten/Documents/School /MSBA/Summer/Predictive analytics /Unsuprivised learning/GitHub/Advanced-Predictive-Modeling-HW/Homework 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8472" xr2:uid="{904E6376-8404-4C70-A354-4B8570E2A002}"/>
+    <workbookView xWindow="1320" yWindow="460" windowWidth="25500" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,9 +128,15 @@
     <definedName name="RiskUseFixedSeed" hidden="1">FALSE</definedName>
     <definedName name="RiskUseMultipleCPUs" hidden="1">TRUE</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -218,7 +224,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -246,16 +252,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,26 +587,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5584911-BFC0-4D7F-B407-45BEAAFA0C1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -614,7 +620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -653,7 +659,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -691,7 +697,7 @@
         <v>1.2960000000000001E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -747,7 +753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -803,7 +809,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -859,7 +865,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -897,7 +903,7 @@
         <v>5.2379999999999994E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -944,7 +950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -991,7 +997,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1038,7 +1044,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1085,7 +1091,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1132,7 +1138,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1170,7 +1176,7 @@
         <v>3.0870000000000003E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1217,7 +1223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1264,7 +1270,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1311,7 +1317,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1358,7 +1364,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0</v>
       </c>
@@ -1405,7 +1411,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="J20">
         <f>SUM(J4:J19)</f>
         <v>6.1313163999999996E-2</v>
